--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value419.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value419.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.127672132943007</v>
+        <v>1.476561903953552</v>
       </c>
       <c r="B1">
-        <v>1.79690083685515</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.727327378844433</v>
+        <v>2.410345315933228</v>
       </c>
       <c r="D1">
-        <v>2.480668892088813</v>
+        <v>1.562836408615112</v>
       </c>
       <c r="E1">
-        <v>0.6696089427188446</v>
+        <v>1.275827646255493</v>
       </c>
     </row>
   </sheetData>
